--- a/epacket.xlsx
+++ b/epacket.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -43,40 +43,664 @@
     <t xml:space="preserve">r2_handle</t>
   </si>
   <si>
-    <t xml:space="preserve">us,usa,united states,american</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au,australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk,united kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">il,israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr,france</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca,canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no,norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa,saudi arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua,ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de,germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">br,brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru,russian federation</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">us,usa,united states,american,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">美国</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">au,australia,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">澳大利亚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">uk,united kingdom,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">英国</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">il,israel,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">以色列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fr,france,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">法国</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ca,canada,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">加拿大</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">no,norway,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">挪威</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sa,saudi arabia,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">沙特阿拉伯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ua,ukraine,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">乌克兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">de,germany,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">德国</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">br,brazil,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">巴西</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ru,russian federation,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nz,new zealand,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新西兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jp,japan,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hk,hong kong,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">香港</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kr,korea,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">韩国</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">my,malaysia,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">马来西亚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sg,singapore,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新加坡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tr,turkey,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">土耳其</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">at,austria,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">奥地利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">be,belgium,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">比利时</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ch,switzerland,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">瑞士</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dk,denmark,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">丹麦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hu,hunGary,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">匈牙利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">it,italy,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">意大利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lu,luxembourg,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">卢森堡</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nl,netherlands,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">荷兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pl,poland,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">波兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">se,sweden,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">瑞典</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fl,finland,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">芬兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ie,ireland,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">爱尔兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pt,portugal,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">葡萄牙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mx,mexico,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">墨西哥</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -416,10 +1040,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,22 +1083,22 @@
         <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,7 +1121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -520,7 +1144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -537,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,7 +1190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -589,7 +1213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -612,7 +1236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,30 +1259,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -681,7 +1305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,7 +1328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -715,16 +1339,499 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.08</v>
+        <v>0.092</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.08</v>
+        <v>0.092</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
